--- a/Container timetable.xlsx
+++ b/Container timetable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\SmartContainer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
